--- a/sample_purchase_order.xlsx
+++ b/sample_purchase_order.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>typ</t>
+          <t>Type (Organisation/Customer)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Ord_date[yyyy-mm-dd]</t>
+          <t>ord_date[yyyy-mm-dd]</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>payed</t>
+          <t>advance</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -598,11 +598,6 @@
       <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>term</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
         </is>
       </c>
     </row>
@@ -617,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +651,11 @@
           <t>discount</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Purchase Order No</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample_purchase_order.xlsx
+++ b/sample_purchase_order.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,155 +447,125 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>vendor_gst_treatment</t>
+          <t>Organisation</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>vendor_gst_no</t>
+          <t>Org_address</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Org_gst</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Org_address</t>
+          <t>Org_street</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Org_gst</t>
+          <t>Org_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Org_street</t>
+          <t>Org_city</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Org_state</t>
+          <t>Type (Organisation/Customer)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Org_city</t>
+          <t>Org_mail</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Type (Organisation/Customer)</t>
+          <t>customer_name</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Org_mail</t>
+          <t>customer_mail</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>Purchase Order No</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>customer_mail</t>
+          <t>Place of Supply</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>customer_address</t>
+          <t>ord_date[yyyy-mm-dd]</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>customer_street</t>
+          <t>exp_date[yyyy-mm-dd]</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>customer_state</t>
+          <t>payment_terms</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>customer_city</t>
+          <t>shipping_charge</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Purchase Order No</t>
+          <t>adjustment_charge</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Place of Supply</t>
+          <t>advance</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ord_date[yyyy-mm-dd]</t>
+          <t>note</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>exp_date[yyyy-mm-dd]</t>
+          <t>payment_type</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>payment_terms</t>
+          <t>cheque_id</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>shipping_charge</t>
+          <t>upi_id</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>adjustment_charge</t>
+          <t>document</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>advance</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>payment_type</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>cheque_id</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>upi_id</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
@@ -612,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,35 +593,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>hsn</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>quantity</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tax</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Purchase Order No</t>
         </is>

--- a/sample_purchase_order.xlsx
+++ b/sample_purchase_order.xlsx
@@ -447,37 +447,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Type (Organisation/Customer)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Org_address</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Org_gst</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Org_street</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Org_state</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Org_city</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Type (Organisation/Customer)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>tax(%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
